--- a/Moto.xlsx
+++ b/Moto.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pimph\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jobs\Kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="2" r:id="rId2"/>
+    <sheet name="www" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>แระเภท</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>ประเภท</t>
   </si>
@@ -58,13 +56,103 @@
   </si>
   <si>
     <t>ประเภทย่อย</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Custom Bobber</t>
+  </si>
+  <si>
+    <t>Neo Sports Café</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Super Sport</t>
+  </si>
+  <si>
+    <t>Touring</t>
+  </si>
+  <si>
+    <t>ยี่ห้อ</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Kawasaki</t>
+  </si>
+  <si>
+    <t>Ducati</t>
+  </si>
+  <si>
+    <t>รุ่นรถจักรยานยนต์</t>
+  </si>
+  <si>
+    <t>All New Scoopy</t>
+  </si>
+  <si>
+    <t>New Click 125i</t>
+  </si>
+  <si>
+    <t>รุ่นย่อย</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>https://bestreview.asia/honda-motorcycles-prices-and-spec/#AT-motorcycle</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>เกียร์</t>
+  </si>
+  <si>
+    <t>อัตโนมัติ</t>
+  </si>
+  <si>
+    <t>เมนวล</t>
+  </si>
+  <si>
+    <t>ประเภทล้อ</t>
+  </si>
+  <si>
+    <t>ล้อซี่ลวด</t>
+  </si>
+  <si>
+    <t>น้ำหนัก</t>
+  </si>
+  <si>
+    <t>ล้อแม็ก</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/pimphongphat/csharp_winapp/main/Images/All-New-Scoopy-1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +160,34 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7B7B7B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191820"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,16 +207,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7B7B7B"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7B7B7B"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -114,20 +297,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A3" totalsRowShown="0">
-  <autoFilter ref="A1:A3"/>
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="ประเภท"/>
+    <tableColumn id="2" name="ประเภทย่อย"/>
+    <tableColumn id="3" name="ยี่ห้อ"/>
+    <tableColumn id="4" name="รุ่นรถจักรยานยนต์"/>
+    <tableColumn id="6" name="รุ่นย่อย"/>
+    <tableColumn id="7" name="เกียร์"/>
+    <tableColumn id="8" name="CC" dataDxfId="2"/>
+    <tableColumn id="9" name="น้ำหนัก" dataDxfId="1"/>
+    <tableColumn id="10" name="Image" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B1:B7" totalsRowShown="0">
-  <autoFilter ref="B1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D1:E13" totalsRowShown="0">
+  <autoFilter ref="D1:E13"/>
+  <tableColumns count="2">
+    <tableColumn id="2" name="ID"/>
+    <tableColumn id="1" name="ประเภทย่อย"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:G5" totalsRowShown="0">
+  <autoFilter ref="G1:G5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="ประเภทย่อย"/>
+    <tableColumn id="1" name="ยี่ห้อ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="I1:I3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="I1:I3"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="รุ่นรถจักรยานยนต์"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M1:M3" totalsRowShown="0">
+  <autoFilter ref="M1:M3"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="เกียร์"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="K1:K3" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="K1:K3"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="รุ่นย่อย" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="O1:O3" totalsRowShown="0">
+  <autoFilter ref="O1:O3"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="ประเภทล้อ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B1:B4" totalsRowShown="0">
+  <autoFilter ref="B1:B4"/>
+  <tableColumns count="1">
+    <tableColumn id="2" name="ประเภท"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -396,91 +648,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="23.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="101.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tables!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tables!$E$2:$E$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tables!$G$2:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="B1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+    <row r="9" spans="2:15">
+      <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="D10">
         <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="AT-motorcycle"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Moto.xlsx
+++ b/Moto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jobs\Kai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamontron\Documents\GitHub\csharp_winapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E86DCE-1082-48E2-9FCB-64E29320BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>ประเภท</t>
   </si>
@@ -151,12 +152,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -165,7 +166,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -228,29 +229,6 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -283,6 +261,29 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -297,89 +298,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ประเภท"/>
-    <tableColumn id="2" name="ประเภทย่อย"/>
-    <tableColumn id="3" name="ยี่ห้อ"/>
-    <tableColumn id="4" name="รุ่นรถจักรยานยนต์"/>
-    <tableColumn id="6" name="รุ่นย่อย"/>
-    <tableColumn id="7" name="เกียร์"/>
-    <tableColumn id="8" name="CC" dataDxfId="2"/>
-    <tableColumn id="9" name="น้ำหนัก" dataDxfId="1"/>
-    <tableColumn id="10" name="Image" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ประเภท"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ประเภทย่อย"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ยี่ห้อ"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="รุ่นรถจักรยานยนต์"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="รุ่นย่อย"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="เกียร์"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CC" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="น้ำหนัก" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Image" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D1:E13" totalsRowShown="0">
-  <autoFilter ref="D1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="D1:E13" totalsRowShown="0">
+  <autoFilter ref="D1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="ID"/>
-    <tableColumn id="1" name="ประเภทย่อย"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ประเภทย่อย"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:G5" totalsRowShown="0">
-  <autoFilter ref="G1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="G1:G5" totalsRowShown="0">
+  <autoFilter ref="G1:G5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="ยี่ห้อ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ยี่ห้อ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="I1:I3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I1:I3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="I1:I3" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="I1:I3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="รุ่นรถจักรยานยนต์"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="รุ่นรถจักรยานยนต์"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M1:M3" totalsRowShown="0">
-  <autoFilter ref="M1:M3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="M1:M3" totalsRowShown="0">
+  <autoFilter ref="M1:M3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="เกียร์"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="เกียร์"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="K1:K3" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="K1:K3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="K1:K3" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="K1:K3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="รุ่นย่อย" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="รุ่นย่อย" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="O1:O3" totalsRowShown="0">
-  <autoFilter ref="O1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="O1:O3" totalsRowShown="0">
+  <autoFilter ref="O1:O3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="ประเภทล้อ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="ประเภทล้อ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B1:B4" totalsRowShown="0">
-  <autoFilter ref="B1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table11" displayName="Table11" ref="B1:B4" totalsRowShown="0">
+  <autoFilter ref="B1:B4" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
-    <tableColumn id="2" name="ประเภท"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="ประเภท"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,26 +648,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="23.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="101.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2"/>
+    <col min="8" max="8" width="23.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="101.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -705,13 +706,21 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{C2D970F4-4248-4084-B21E-E2EE60945B7C}">
+      <formula1>"Tables!$I$1:$I$3"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -719,25 +728,31 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Tables!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$13</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Tables!$G$2:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47F3C649-ABF6-481E-9C2C-83A607C3726F}">
+          <x14:formula1>
+            <xm:f>Tables!$I$2:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3 D2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -745,29 +760,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -819,7 +834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -845,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -859,7 +874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>4</v>
       </c>
@@ -870,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>5</v>
       </c>
@@ -878,7 +893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>6</v>
       </c>
@@ -886,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>7</v>
       </c>
@@ -894,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>8</v>
       </c>
@@ -902,7 +917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>9</v>
       </c>
@@ -910,7 +925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>10</v>
       </c>
@@ -918,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>11</v>
       </c>
@@ -926,7 +941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>12</v>
       </c>
@@ -935,6 +950,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{BC7F1D9E-31FC-4FB9-AD0E-789544F903CB}">
+      <formula1>$I$1:$I$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -950,23 +970,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="AT-motorcycle"/>
+    <hyperlink ref="A1" r:id="rId1" location="AT-motorcycle" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Moto.xlsx
+++ b/Moto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamontron\Documents\GitHub\csharp_winapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E86DCE-1082-48E2-9FCB-64E29320BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D14ED3-50DF-4018-874D-BD2B2F4EC8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Tables!$B$2:$B$4</xm:f>
@@ -752,6 +752,12 @@
             <xm:f>Tables!$I$2:$I$3</xm:f>
           </x14:formula1>
           <xm:sqref>A3 D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B13A543-1D9E-4801-9A6E-60561ADF3E9C}">
+          <x14:formula1>
+            <xm:f>Tables!$K$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Moto.xlsx
+++ b/Moto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamontron\Documents\GitHub\csharp_winapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D14ED3-50DF-4018-874D-BD2B2F4EC8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3118B2-A7E9-490F-AB7D-4339DFDB1346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Tables!$B$2:$B$4</xm:f>
@@ -755,9 +755,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B13A543-1D9E-4801-9A6E-60561ADF3E9C}">
           <x14:formula1>
-            <xm:f>Tables!$K$2</xm:f>
+            <xm:f>Tables!$K$2:$K$3</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E1CF4F6-159C-4AD1-9509-B7665F0ECC54}">
+          <x14:formula1>
+            <xm:f>Tables!$M$2:$M$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A1CB98A-2ED8-40BD-94C8-9BAB1B309792}">
+          <x14:formula1>
+            <xm:f>Tables!$O$2:$O$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -770,7 +782,7 @@
   <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,6 +798,7 @@
     <col min="9" max="9" width="20.75" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" x14ac:dyDescent="0.25">

--- a/Moto.xlsx
+++ b/Moto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamontron\Documents\GitHub\csharp_winapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3118B2-A7E9-490F-AB7D-4339DFDB1346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1089F-7F20-49D9-8B78-9F2B6BB5D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>ประเภท</t>
   </si>
@@ -298,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table8" displayName="Table8" ref="A1:I3" totalsRowShown="0">
+  <autoFilter ref="A1:I3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ประเภท"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ประเภทย่อย"/>
@@ -649,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,6 +713,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{C2D970F4-4248-4084-B21E-E2EE60945B7C}">
@@ -721,14 +726,15 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" location="AT-motorcycle" xr:uid="{5D79F4E2-1776-4295-A5F5-B6CA1DF638F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Tables!$B$2:$B$4</xm:f>
@@ -739,37 +745,43 @@
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Tables!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C2:C3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47F3C649-ABF6-481E-9C2C-83A607C3726F}">
           <x14:formula1>
             <xm:f>Tables!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A3 D2</xm:sqref>
+          <xm:sqref>A3 D2:D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B13A543-1D9E-4801-9A6E-60561ADF3E9C}">
           <x14:formula1>
             <xm:f>Tables!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E1CF4F6-159C-4AD1-9509-B7665F0ECC54}">
           <x14:formula1>
             <xm:f>Tables!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A1CB98A-2ED8-40BD-94C8-9BAB1B309792}">
           <x14:formula1>
             <xm:f>Tables!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
+          <xm:sqref>G2:G3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF06BD8A-1530-419C-B5EE-02CE99B27F25}">
+          <x14:formula1>
+            <xm:f>www!$A$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -992,9 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/Moto.xlsx
+++ b/Moto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamontron\Documents\GitHub\csharp_winapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1089F-7F20-49D9-8B78-9F2B6BB5D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB6F530-A2A8-4DDA-9993-F1B01DAC294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>ประเภท</t>
   </si>
@@ -652,7 +652,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,11 +709,20 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2">
+        <v>125</v>
+      </c>
+      <c r="H3" s="2">
+        <v>112</v>
+      </c>
       <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
@@ -775,7 +784,7 @@
           <x14:formula1>
             <xm:f>Tables!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3</xm:sqref>
+          <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF06BD8A-1530-419C-B5EE-02CE99B27F25}">
           <x14:formula1>
